--- a/List Daftar Pelajaran.xlsx
+++ b/List Daftar Pelajaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\persiapan-ujian-genap-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF82252-CFE7-49CA-8BC7-82DB4219B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A068B-1F82-41C5-A1B0-1FB979652928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,13 +70,19 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -207,11 +213,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -227,37 +257,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +558,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,41 +568,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -595,16 +610,16 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -612,16 +627,16 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -629,16 +644,16 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -646,16 +661,16 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -663,16 +678,16 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/List Daftar Pelajaran.xlsx
+++ b/List Daftar Pelajaran.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\persiapan-ujian-genap-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030A068B-1F82-41C5-A1B0-1FB979652928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA8B27B-1D70-4260-A722-3C6E3C4FD5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,21 +227,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,22 +266,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,12 +568,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -587,22 +587,22 @@
       <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -610,16 +610,16 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -627,16 +627,16 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -644,16 +644,16 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -661,16 +661,16 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -678,16 +678,16 @@
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
     </row>
